--- a/src/main/resources/db/00_doc/テーブル定義書.xlsx
+++ b/src/main/resources/db/00_doc/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spcia\Documents\repository\quiz-note-api\src\main\resources\db\00_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF738E7-F9BD-4C3D-A54F-2C6B557748AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F438097-0428-40B8-8809-656F2E89FC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A715B91-2953-4436-BF51-C75190BBF263}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89359EFE-8D57-4EF9-8FC3-99F079560650}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="228">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -547,6 +547,15 @@
     <t>blocked</t>
   </si>
   <si>
+    <t>クイズCD</t>
+  </si>
+  <si>
+    <t>quiz_cd</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
     <t>問題</t>
   </si>
   <si>
@@ -562,9 +571,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>ヒント</t>
   </si>
   <si>
@@ -596,6 +602,9 @@
   </si>
   <si>
     <t>like_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quiz_cd </t>
   </si>
   <si>
     <t>クイズいいねID</t>
@@ -2090,13 +2099,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B966263E-C92E-43FB-8BC2-7FABC16DDD1A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1315B5-9A0A-4E58-8A10-8AFD9F9632EA}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2611,19 +2617,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6156080-596A-4740-ACA8-F09DFB032968}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50F4594-8676-4247-B8C1-2F57A3363EA2}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3113,20 +3112,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83C51BD-BA55-4D0E-AF28-41F21F3A6E97}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99A2FEB-8655-494E-942A-3D3DB068333E}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3305,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>68</v>
@@ -3328,13 +3319,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>68</v>
@@ -3380,9 +3371,11 @@
         <v>174</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="39"/>
+        <v>169</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="F18" s="62" t="s">
         <v>54</v>
       </c>
@@ -3401,7 +3394,7 @@
         <v>176</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="62" t="s">
@@ -3416,13 +3409,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="D20" s="39" t="s">
         <v>179</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>79</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="62" t="s">
@@ -3437,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="62" t="s">
@@ -3458,17 +3451,17 @@
         <v>9</v>
       </c>
       <c r="B22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="D22" s="39" t="s">
         <v>183</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="62" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G22" s="63" t="s">
         <v>54</v>
@@ -3479,19 +3472,17 @@
         <v>10</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E23" s="39"/>
       <c r="F23" s="62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G23" s="63" t="s">
         <v>54</v>
@@ -3502,19 +3493,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>68</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G24" s="63" t="s">
         <v>54</v>
@@ -3525,19 +3516,19 @@
         <v>12</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="G25" s="63" t="s">
         <v>54</v>
@@ -3548,188 +3539,227 @@
         <v>13</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="26">
+        <v>14</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29">
-        <v>14</v>
-      </c>
-      <c r="B27" s="41" t="s">
+      <c r="G27" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="29">
+        <v>15</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C28" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D28" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E28" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25" t="s">
+      <c r="F28" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="73" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B31" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C31" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="74" t="s">
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="79" t="s">
+      <c r="G31" s="46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="57">
+        <v>1</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="73" t="s">
+    <row r="35" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B35" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C35" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77" t="s">
+      <c r="D35" s="76"/>
+      <c r="E35" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79" t="s">
+      <c r="F35" s="78"/>
+      <c r="G35" s="79" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="35" t="s">
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B38" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C38" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="90" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="46" t="s">
+      <c r="F38" s="91"/>
+      <c r="G38" s="46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="32">
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="32">
         <v>1</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="88" t="s">
+      <c r="B39" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="88" t="s">
+      <c r="D39" s="89"/>
+      <c r="E39" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="89"/>
-      <c r="G37" s="44" t="s">
+      <c r="F39" s="89"/>
+      <c r="G39" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="26">
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="26">
         <v>2</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="84" t="s">
+      <c r="B40" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="84" t="s">
+      <c r="D40" s="85"/>
+      <c r="E40" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="40" t="s">
+      <c r="F40" s="85"/>
+      <c r="G40" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="29">
+    <row r="41" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="29">
         <v>3</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="86" t="s">
+      <c r="B41" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="86" t="s">
+      <c r="D41" s="87"/>
+      <c r="E41" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="42" t="s">
+      <c r="F41" s="87"/>
+      <c r="G41" s="42" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C38:D38"/>
+  <mergeCells count="21">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -3743,19 +3773,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6432AA-6DA8-48B3-AB50-AFBE0CD56F16}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AEA9AF-37CC-4444-84FE-B6D79498FD56}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3912,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>127</v>
@@ -3981,10 +4003,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>93</v>
@@ -4247,19 +4269,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892E0302-C74B-4F52-90D0-45B89EAF4AF2}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C34B8DB-C3D7-4841-9CEF-C4FDAEB975FF}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4416,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>127</v>
@@ -4462,13 +4476,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>68</v>
@@ -4725,19 +4739,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14255ABA-3D47-4270-828F-EAE9916F2830}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F6378-2B80-4BF5-8112-993BC35142BB}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4957,10 +4963,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>54</v>
@@ -4978,10 +4984,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>54</v>
@@ -4999,10 +5005,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>54</v>
@@ -5020,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>54</v>
@@ -5041,10 +5047,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>54</v>
@@ -5062,10 +5068,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>54</v>
@@ -5083,10 +5089,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>54</v>
@@ -5104,10 +5110,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>54</v>
@@ -5125,10 +5131,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>54</v>
@@ -5143,7 +5149,7 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5151,7 +5157,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C28" s="96"/>
       <c r="D28" s="96"/>
@@ -5164,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -5177,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5190,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5203,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5216,7 +5222,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5229,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5242,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5255,7 +5261,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5268,7 +5274,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5281,7 +5287,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5294,7 +5300,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5307,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5320,7 +5326,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5333,7 +5339,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5346,7 +5352,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5359,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5372,7 +5378,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5385,7 +5391,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5398,7 +5404,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5411,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5424,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5437,7 +5443,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5450,7 +5456,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5585,19 +5591,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C69A0E-C001-4EBC-9430-4F9B78E5E7BA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356D47E5-71B9-4F6A-A98A-ECF185C23FA6}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5778,32 +5776,24 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'アカウント'!A1" display="'アカウント'!A1" xr:uid="{2F98D8A8-650B-4EF8-A7F9-591830927BBF}"/>
-    <hyperlink ref="C4" location="'アクティビティ'!A1" display="'アクティビティ'!A1" xr:uid="{28F4D955-113C-4DA3-A2F3-9B874F1193CB}"/>
-    <hyperlink ref="C5" location="'通報'!A1" display="'通報'!A1" xr:uid="{93826015-2051-49EC-8AC4-729B56B99A92}"/>
-    <hyperlink ref="C6" location="'課金ログ'!A1" display="'課金ログ'!A1" xr:uid="{A76C8A6C-01E3-402E-99F8-7CC3FA9576A2}"/>
-    <hyperlink ref="C7" location="'フォロー'!A1" display="'フォロー'!A1" xr:uid="{B2834B77-ADEC-4BAF-BE90-389A01F185EC}"/>
-    <hyperlink ref="C8" location="'グループ'!A1" display="'グループ'!A1" xr:uid="{F93EFEEE-E4CF-458E-AB1A-B62F5171C792}"/>
-    <hyperlink ref="C9" location="'グループメンバー'!A1" display="'グループメンバー'!A1" xr:uid="{48205BDD-0573-441D-9D0B-D38CC06219D2}"/>
-    <hyperlink ref="C10" location="'クイズ'!A1" display="'クイズ'!A1" xr:uid="{2419D9AE-1BDB-43AB-A7AF-8C1718F5B97C}"/>
-    <hyperlink ref="C11" location="'クイズいいね'!A1" display="'クイズいいね'!A1" xr:uid="{C717520F-DA6B-4A3A-9DDF-E78412975C6D}"/>
-    <hyperlink ref="C12" location="'クイズタグ'!A1" display="'クイズタグ'!A1" xr:uid="{40010C62-AEF3-4D8F-B333-3FA024FFDF92}"/>
-    <hyperlink ref="C13" location="'フォロービュー'!A1" display="'フォロービュー'!A1" xr:uid="{86A19F85-5092-4875-9FF7-69E06D0B0D99}"/>
+    <hyperlink ref="C3" location="'アカウント'!A1" display="'アカウント'!A1" xr:uid="{5F031DF2-ED45-487A-85C9-18A742AD49E6}"/>
+    <hyperlink ref="C4" location="'アクティビティ'!A1" display="'アクティビティ'!A1" xr:uid="{462D3D08-7E1D-4C17-A41E-2117F7B448FB}"/>
+    <hyperlink ref="C5" location="'通報'!A1" display="'通報'!A1" xr:uid="{EFA176DE-5654-4DF7-BF5B-B80AE4DD80D2}"/>
+    <hyperlink ref="C6" location="'課金ログ'!A1" display="'課金ログ'!A1" xr:uid="{F03197A3-A355-45EF-843D-430BE68E19FF}"/>
+    <hyperlink ref="C7" location="'フォロー'!A1" display="'フォロー'!A1" xr:uid="{58FFA31B-A9EF-41F5-94E2-0679A91CFC85}"/>
+    <hyperlink ref="C8" location="'グループ'!A1" display="'グループ'!A1" xr:uid="{67BF1A0A-629B-43AA-B152-66A4BFC82B65}"/>
+    <hyperlink ref="C9" location="'グループメンバー'!A1" display="'グループメンバー'!A1" xr:uid="{8787FFDC-DBC5-43B2-B2DB-FC64B85B5FF0}"/>
+    <hyperlink ref="C10" location="'クイズ'!A1" display="'クイズ'!A1" xr:uid="{00235BF9-AAA3-4076-9936-CF164465682D}"/>
+    <hyperlink ref="C11" location="'クイズいいね'!A1" display="'クイズいいね'!A1" xr:uid="{147E4245-06A3-45B3-84DA-3459A0ED893F}"/>
+    <hyperlink ref="C12" location="'クイズタグ'!A1" display="'クイズタグ'!A1" xr:uid="{C40CAA8F-41E2-4DFE-869D-9C887553DAB7}"/>
+    <hyperlink ref="C13" location="'フォロービュー'!A1" display="'フォロービュー'!A1" xr:uid="{162EB4A9-2081-4738-8BCE-4BD524C6BA45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2D6A43-EC86-4001-9EF5-3E7B0044A789}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75275A2-4CDF-443F-9DE5-671C123A2759}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5894,19 +5884,11 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8C584-B25B-4152-8D82-4370865A7DF8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9555C9-B5F9-44E5-A2AB-D571C3394456}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6712,19 +6694,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA424833-2BBA-4E7E-87D2-00D1F79F63B1}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB274F8-4C02-45FF-B271-7D260F43EC6D}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7228,19 +7202,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2047C-12F8-46B1-A1C7-7D9EC7D57609}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EEE0FE-9D62-4874-806F-EEC2CF94F312}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7818,19 +7784,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D411C66-5B1A-422A-ACB3-51E69757BB93}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA962E37-E298-4A5A-9795-AD87FBA88257}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8278,19 +8236,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E2309-1471-407C-94D4-13F6DE8564F4}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F50951-7D14-4B54-8916-8A760372F663}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8759,19 +8709,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C5A67-D4AD-4535-8C1B-8274F0C01DC6}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C965D1A5-0759-4FC4-846D-60915AC0ADA2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9300,10 +9242,5 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>